--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8568"/>
+    <workbookView xWindow="-25320" yWindow="288" windowWidth="25440" windowHeight="15396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="693">
   <si>
     <t>AAA</t>
   </si>
@@ -59,9 +68,6 @@
     <t>Factory</t>
   </si>
   <si>
-    <t>Örtofta</t>
-  </si>
-  <si>
     <t>INSTRUCTIONS</t>
   </si>
   <si>
@@ -170,15 +176,9 @@
     <t>VARIETY STRENGTH</t>
   </si>
   <si>
-    <t>SORT STRYKA</t>
-  </si>
-  <si>
     <t>Variety type</t>
   </si>
   <si>
-    <t>Sort typ</t>
-  </si>
-  <si>
     <t>Normal</t>
   </si>
   <si>
@@ -197,9 +197,6 @@
     <t>Variety strength (relative)</t>
   </si>
   <si>
-    <t>Sort stryka (relativt)</t>
-  </si>
-  <si>
     <t>LATE SEASON GROWTH POTENTIAL</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>Date of cover with TopTex</t>
   </si>
   <si>
-    <t>Datum TopTex sattes på</t>
-  </si>
-  <si>
     <t>CLAMP TEMPERATURE MODEL</t>
   </si>
   <si>
@@ -317,21 +311,12 @@
     <t>Temperature date from which year?</t>
   </si>
   <si>
-    <t>Temperaturdata från vilket år?</t>
-  </si>
-  <si>
     <t>Clamp width at base (m)</t>
   </si>
   <si>
-    <t>Stuk bredd vid botten (m)</t>
-  </si>
-  <si>
     <t>Clamp temperature floor (°C)</t>
   </si>
   <si>
-    <t>Stuktemperatur golv (°C)</t>
-  </si>
-  <si>
     <t>STORAGE LOSS MODEL</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>Clamp pol loss</t>
   </si>
   <si>
-    <t>Stuka pol förlust</t>
-  </si>
-  <si>
     <t>Ref pol loss</t>
   </si>
   <si>
@@ -410,15 +392,9 @@
     <t>Distance to deliver (mil)</t>
   </si>
   <si>
-    <t>Distans av leverans (mil)</t>
-  </si>
-  <si>
     <t>Cost for delivery</t>
   </si>
   <si>
-    <t>Leverans kostnad</t>
-  </si>
-  <si>
     <t>Delivery costs</t>
   </si>
   <si>
@@ -452,9 +428,6 @@
     <t>Cost of soil transport (SEK)</t>
   </si>
   <si>
-    <t>Kostnad jordtransport (SEK)</t>
-  </si>
-  <si>
     <t>PROD./ PAYMENT</t>
   </si>
   <si>
@@ -470,9 +443,6 @@
     <t>Date production data from:</t>
   </si>
   <si>
-    <t>Datum produktion data från:</t>
-  </si>
-  <si>
     <t>Root yield (t/ha)</t>
   </si>
   <si>
@@ -503,9 +473,6 @@
     <t>Your contract price (SEK)</t>
   </si>
   <si>
-    <t>Din kontrakt pris (SEK)</t>
-  </si>
-  <si>
     <t>Eligible for volume bonus</t>
   </si>
   <si>
@@ -539,15 +506,9 @@
     <t>Grown</t>
   </si>
   <si>
-    <t>Växt</t>
-  </si>
-  <si>
     <t>Harvested</t>
   </si>
   <si>
-    <t>Upptagen</t>
-  </si>
-  <si>
     <t>Hectare</t>
   </si>
   <si>
@@ -587,15 +548,9 @@
     <t>Restrict data start date to harvest date</t>
   </si>
   <si>
-    <t>Begränsa data startdatum till upptagningsdatum</t>
-  </si>
-  <si>
     <t>Restrict data end date to delivery date</t>
   </si>
   <si>
-    <t>Begränsa data slutdatum till leveransdatum</t>
-  </si>
-  <si>
     <t>Show economy</t>
   </si>
   <si>
@@ -632,15 +587,9 @@
     <t>Base price - clean tn</t>
   </si>
   <si>
-    <t>Baspris per ton ren betor</t>
-  </si>
-  <si>
     <t>Bonus - clean tn</t>
   </si>
   <si>
-    <t>Bonus per ton ren betor</t>
-  </si>
-  <si>
     <t>Payment - clean tn</t>
   </si>
   <si>
@@ -692,9 +641,6 @@
     <t>PRODUCTION - CHARTS</t>
   </si>
   <si>
-    <t>PRODUCTION - DIAGRAM</t>
-  </si>
-  <si>
     <t>Cum. sug</t>
   </si>
   <si>
@@ -707,9 +653,6 @@
     <t>Cum. % loss</t>
   </si>
   <si>
-    <t>Cum. % förlust</t>
-  </si>
-  <si>
     <t>SUGAR CONTENT</t>
   </si>
   <si>
@@ -719,9 +662,6 @@
     <t>Cum. mass</t>
   </si>
   <si>
-    <t>Cum. massa</t>
-  </si>
-  <si>
     <t>ROOT YIELD</t>
   </si>
   <si>
@@ -731,9 +671,6 @@
     <t>Cum. temperature</t>
   </si>
   <si>
-    <t>Cum. temperatur</t>
-  </si>
-  <si>
     <t>Degree days (°Cd)</t>
   </si>
   <si>
@@ -758,9 +695,6 @@
     <t>Bonus payment</t>
   </si>
   <si>
-    <t>Bonuspris</t>
-  </si>
-  <si>
     <t>Totalpris</t>
   </si>
   <si>
@@ -773,9 +707,6 @@
     <t>INCOME PER HECTARE</t>
   </si>
   <si>
-    <t>INKOMST PER HEKTAR</t>
-  </si>
-  <si>
     <t>Price (kr)</t>
   </si>
   <si>
@@ -785,9 +716,6 @@
     <t>INCOME PER FIELD</t>
   </si>
   <si>
-    <t>INKOMST PER FÄLT</t>
-  </si>
-  <si>
     <t>Price (kr/t)</t>
   </si>
   <si>
@@ -797,15 +725,9 @@
     <t>INCOME PER CLEAN (17%) TON</t>
   </si>
   <si>
-    <t>INKOMST PER TON RENBETOR (17%)</t>
-  </si>
-  <si>
     <t>INCOME PER DELIVERED (17%) TON</t>
   </si>
   <si>
-    <t>INKOMST PER TON LEVERERADBETOR (17%)</t>
-  </si>
-  <si>
     <t>COMPARE</t>
   </si>
   <si>
@@ -1748,51 +1670,24 @@
     <t xml:space="preserve"> Temp. (°C)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cum. Temp (°Cd)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cum pol förlust (%)</t>
-  </si>
-  <si>
     <t>VARNINGAR</t>
   </si>
   <si>
     <t>Du bör inte använda den här modellen för att fatta ledningsbeslut på din gård.</t>
   </si>
   <si>
-    <t>Syftet är att hjälpa till att utforska de faktorer som driver framgångsrika skörde- och lagringsstrategier.</t>
-  </si>
-  <si>
-    <t>Modellen är generell och kanske inte lämplig för ditt eget produktionssystem.</t>
-  </si>
-  <si>
     <t>Denna modell kan inte återspegla den variation i produktionssystemet som uppstår från dag till dag i verkligheten.</t>
   </si>
   <si>
     <t>På samma sätt kan den inte återspegla din vilja att acceptera dessa produktionsrisker.</t>
   </si>
   <si>
-    <t>Prismodellen 2021 för Sverige tillämpas. Priserna antas fasta i SEK.</t>
-  </si>
-  <si>
-    <t>Standardvärdena är de som ungefär återspeglar branschens genomsnitt.</t>
-  </si>
-  <si>
     <t>På samma sätt, när du kan se att det modellerade resultatet skiljer sig från det faktiska resultatet, är det här dags att fråga 'varför?' och förhoppningsvis hitta någon verklig insikt.</t>
   </si>
   <si>
-    <t>Observera att kostnadsinformationen på fliken Leverans inte är väl utvecklad.</t>
-  </si>
-  <si>
     <t>DEFINITIONER</t>
   </si>
   <si>
-    <t>Termen på vilken rotskörd vanligen definieras</t>
-  </si>
-  <si>
-    <t>Massan är oberoende av sockerhalten</t>
-  </si>
-  <si>
     <t>Lika med vikt levererad betor x renhet</t>
   </si>
   <si>
@@ -1805,15 +1700,6 @@
     <t>Det innebär att prisökningen/ sänkningen är större vid lägre sockerkoncentrationer.</t>
   </si>
   <si>
-    <t>Kontraktspriset är för en pol på 17%</t>
-  </si>
-  <si>
-    <t>Levererad: Massan som faller ut ur lastbilen på Örtofta.</t>
-  </si>
-  <si>
-    <t>En stor bråkdel av massan är jord och obearbetat betmaterial</t>
-  </si>
-  <si>
     <t>Är oberoende av sockerhalt.</t>
   </si>
   <si>
@@ -1862,9 +1748,6 @@
     <t>För att prova detta bör 20 representativa betor mätas i stukan.</t>
   </si>
   <si>
-    <t>Källor: IIRB och Industri erfarenhet</t>
-  </si>
-  <si>
     <t>Stukatemperaturmodellen bestämmer stukatemperaturen i förhållande till lufttemperaturen.</t>
   </si>
   <si>
@@ -1874,39 +1757,21 @@
     <t>Stukabredd bestämmer en multiplikationsfaktor på stukatemperaturen i förhållande till lufttemperaturen.</t>
   </si>
   <si>
-    <t>En bredare stuka kommer att bygga mer värme än en tunnare.</t>
-  </si>
-  <si>
     <t>Vid 7m är denna multiplikationsfaktor 1,00. Vid 9m är det 1,10.</t>
   </si>
   <si>
     <t>För modeller med temperaturgolv - en minsta temperatur som stukan kan gå till - Stukatemperaturgolv ställer detta.</t>
   </si>
   <si>
-    <t>Det datum stukan är täckt med TopTex används endast för att bestämma TopTex bonusen.</t>
-  </si>
-  <si>
     <t>Källor: bara allmän observation ...</t>
   </si>
   <si>
-    <t>LAGRINGSFÖRLUSTMODELL</t>
-  </si>
-  <si>
     <t>Sockerförlust</t>
   </si>
   <si>
-    <t>Ju högre din skadaräkning är, desto högre blir din sockerförlust för varje daggrader.</t>
-  </si>
-  <si>
-    <t>Din skadaräkning är summan av Sort Stryka (I FÄLTET fliken),och skörd förhållande (UPPTAGNING fliken).</t>
-  </si>
-  <si>
     <t>Du kan se detta förhållande i diagrammet Sockerförlustmodell (höger) - din lagringsförlust (grön linje) i förhållande till medianförlusten (blå streckad linje).</t>
   </si>
   <si>
-    <t>Massförlust</t>
-  </si>
-  <si>
     <t>Källor: Linjär modell - Jaggard et al. 1997. Diskontinuerlig och kvadratisk - Legrande och Wauters, 2012</t>
   </si>
   <si>
@@ -1997,54 +1862,15 @@
     <t>Leveranskostnadstabellen är korrekt, men jag är inte säker på att det är användbar information.</t>
   </si>
   <si>
-    <t>Det är bara att går igenom flikarna</t>
-  </si>
-  <si>
-    <t>Om du är osäker på vad som är ett lämpligt värde, antingen ta standard, eller ställ in värdet till ett extremt värde och se vad som händer.</t>
-  </si>
-  <si>
     <t>Även om en modell kan ge en indikation på vad som kan hända, är en av de bästa användningsområdena för dem att tänka på alla saker som modellen inte fångar.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ren betor (produktion): Betmassa som är </t>
-  </si>
-  <si>
-    <t>Ren betor (pris) eller 'Ren betor (17%)': Priset per ton ren betor justeras till en pol på 17%</t>
-  </si>
-  <si>
-    <t>Omräkningen till 17% är linjär i förändringen av pris per förändring i pol procenten.</t>
-  </si>
-  <si>
-    <t>Om din pol är högre än så är priserna per ton ren betor som anges i denna modell högre än ditt kontraktspris.</t>
-  </si>
-  <si>
     <t>Upptagningsdatum</t>
   </si>
   <si>
-    <t>Mark fuktighet vid upptagning (procent ideella (%)</t>
-  </si>
-  <si>
     <t>Daggrader (°Cd)</t>
   </si>
   <si>
-    <t>Kostnad per ton ren betor (SEK)</t>
-  </si>
-  <si>
-    <t>Levererad</t>
-  </si>
-  <si>
-    <t>Ton - levererad</t>
-  </si>
-  <si>
-    <t>Ton - ren betor</t>
-  </si>
-  <si>
-    <t>Totall betalning per ton ren betor</t>
-  </si>
-  <si>
-    <t>Totall betalning per ton levererad</t>
-  </si>
-  <si>
     <t xml:space="preserve"> per ha</t>
   </si>
   <si>
@@ -2069,24 +1895,9 @@
     <t>Svårare skördeförhållanden, högre rotorhastighet och svagare betesorter (valda på sidan I FÄLTEN) ger högre skada.</t>
   </si>
   <si>
-    <t>Ju högre din skada blir, desto högre blir din förlustnivå för varje daggrader (visas på fliken LAGRING).</t>
-  </si>
-  <si>
-    <t>Lagringsförlustmodellerna är olika sätt att definiera sambandet mellan lagringsförlust och daggrader stukan.</t>
-  </si>
-  <si>
-    <t>Daggrader är summan av den gröna linjen i grafen ovan, under den period dina betor lagras.</t>
-  </si>
-  <si>
-    <t>Massförlust per daggrader är inte ett mått vi har bra information om, men vi antar att det är cirka 3% över långtidslagring (300 daggrader).</t>
-  </si>
-  <si>
     <t>Om du har funderingar kring detta, vänligen kontakta mig på we@nbrf.nu</t>
   </si>
   <si>
-    <t>En ton ren betor är ett ton sockerbetor (endast),med pol = 17%.</t>
-  </si>
-  <si>
     <t>TopTex bonusen är 5/10/15 SEK per ton ren betor när TopTex används minst 7 dagar före leverans efter 15 nov/1 dec/15 dec.</t>
   </si>
   <si>
@@ -2100,6 +1911,207 @@
   </si>
   <si>
     <t>"</t>
+  </si>
+  <si>
+    <t>Fabrik</t>
+  </si>
+  <si>
+    <t>Syftet med modellen är att hjälpa till att utforska de faktorer som påverkar skörde- och lagringsstrategier.</t>
+  </si>
+  <si>
+    <t>Modellen är generell och kanske inte lämplig för just ditt eget produktionssystem.</t>
+  </si>
+  <si>
+    <t>Prismodellen 2021 för Sverige tillämpas.</t>
+  </si>
+  <si>
+    <t>Det är bara att klicka igenom flikarna ovan och fylla i informationen som efterfrågas.</t>
+  </si>
+  <si>
+    <t>De förifyllda värdena är de som ungefär återspeglar branschens genomsnitt.</t>
+  </si>
+  <si>
+    <t>Om du är osäker på vad som är ett lämpligt värde så utgå från ditt femårssnitt, eller sätt in ett extremvärde och se vad som händer.</t>
+  </si>
+  <si>
+    <t>Observera att kostnadsinformationen på fliken Leverans inte är  helt färdigutvecklad.</t>
+  </si>
+  <si>
+    <t>Termen som vanligen används för att definiera rotskörd.</t>
+  </si>
+  <si>
+    <t>Rena betor (produktion): Tvättade betor minus administrativt avdrag.</t>
+  </si>
+  <si>
+    <t>Betvikten är oberoende av sockerhalten</t>
+  </si>
+  <si>
+    <t>Rena betor (pris) eller 'Rena betor (17%)': Priset per ton ren betor justeras till en pol på 17%</t>
+  </si>
+  <si>
+    <t>Omräkningen till 17% är linjär i förändringen av pris per förändring i pol.</t>
+  </si>
+  <si>
+    <t>Kontraktspriset är för en sockerhalt på 17%</t>
+  </si>
+  <si>
+    <t>Om din sockerhalt är högre än så är priserna per ton ren betor som anges i denna modell högre än ditt kontraktspris.</t>
+  </si>
+  <si>
+    <t>Levererad: Ton orena betor som levererats till Örtofta.</t>
+  </si>
+  <si>
+    <t>En stor del av vikten är jord och icke processbart betmaterial</t>
+  </si>
+  <si>
+    <t>SORTENS HÅLLFASTHET</t>
+  </si>
+  <si>
+    <t>Sorttyp</t>
+  </si>
+  <si>
+    <t>Sortens hållfasthet (relativt)</t>
+  </si>
+  <si>
+    <t>Mark fuktighet vid upptagning, 100% på skalan är optimalt</t>
+  </si>
+  <si>
+    <t>Datum då TopTex sattes på</t>
+  </si>
+  <si>
+    <t>Ange vilket år du vill använda temperaturdata ifrån</t>
+  </si>
+  <si>
+    <t>Stukans bredd vid botten (m)</t>
+  </si>
+  <si>
+    <t>Stuktemperatur med fast lägstanivå (°C)</t>
+  </si>
+  <si>
+    <t>Minskad sockerhalt under lagringen</t>
+  </si>
+  <si>
+    <t>Avstånd till fabrik (mil)</t>
+  </si>
+  <si>
+    <t>Leveranskostnad</t>
+  </si>
+  <si>
+    <t>Kostnad per ton rena betor (SEK)</t>
+  </si>
+  <si>
+    <t>Kostnad för jordtransport (SEK)</t>
+  </si>
+  <si>
+    <t>Datum när nedanstående skörd uppmätts: (tidigast möjliga datum är 15 sept)</t>
+  </si>
+  <si>
+    <t>Ditt kontrakterade pris (SEK)</t>
+  </si>
+  <si>
+    <t>Växer i fält vid upptagning</t>
+  </si>
+  <si>
+    <t>Skördat</t>
+  </si>
+  <si>
+    <t>Levererat</t>
+  </si>
+  <si>
+    <t>Ton - levererat</t>
+  </si>
+  <si>
+    <t>Ton - rena betor</t>
+  </si>
+  <si>
+    <t>Begränsa data  till leveransdatum</t>
+  </si>
+  <si>
+    <t>Begränsa data  till upptagningsdatum</t>
+  </si>
+  <si>
+    <t>Acc. Temp (°Cd)</t>
+  </si>
+  <si>
+    <t>Acc pol förlust (%)</t>
+  </si>
+  <si>
+    <t>Baspris per ton rena betor</t>
+  </si>
+  <si>
+    <t>Bonus per ton rena betor</t>
+  </si>
+  <si>
+    <t>Totall betalning per ton rena betor</t>
+  </si>
+  <si>
+    <t>Total betalning per ton levererad</t>
+  </si>
+  <si>
+    <t>PRODUKTION - DIAGRAM</t>
+  </si>
+  <si>
+    <t>Acc. % förlust</t>
+  </si>
+  <si>
+    <t>Ton rena betor</t>
+  </si>
+  <si>
+    <t>Sockerhalt</t>
+  </si>
+  <si>
+    <t>Acc. daggrader</t>
+  </si>
+  <si>
+    <t>INTÄKT PER HEKTAR</t>
+  </si>
+  <si>
+    <t>INTÄKT PER FÄLT</t>
+  </si>
+  <si>
+    <t>INTÄKT PER TON RENBETOR (17%)</t>
+  </si>
+  <si>
+    <t>INTÄKT PER TON LEVERERADBETOR (17%)</t>
+  </si>
+  <si>
+    <t>Ju högre din skada blir, desto högre blir din förlustnivå för varje daggrad (visas på fliken LAGRING).</t>
+  </si>
+  <si>
+    <t>Källor: IIRB och erfarenheter från industrin</t>
+  </si>
+  <si>
+    <t>En bredare stuka kommer att bygga mer värme än en smalare.</t>
+  </si>
+  <si>
+    <t>Det datum stukan täcktes med TopTex, används endast för att bestämma TopTex bonusen.</t>
+  </si>
+  <si>
+    <t>MODELL FÖR LAGRINGSFÖRLUSTER</t>
+  </si>
+  <si>
+    <t>Lagringsförlustmodellerna bygger på sambandet mellan lagringsförlust och antal daggrader stukan.</t>
+  </si>
+  <si>
+    <t>Daggrader är summan av den gröna linjen i grafen ovan, under den period betorna lagras.</t>
+  </si>
+  <si>
+    <t>Ju högre skaderanking du angett, desto högre blir din sockerförlust för varje daggrader.</t>
+  </si>
+  <si>
+    <t>Din skaderanking är summan av Sort Stryka (I FÄLTET fliken),och skörd förhållande (UPPTAGNING fliken).</t>
+  </si>
+  <si>
+    <t>Viktsförlust</t>
+  </si>
+  <si>
+    <t>Viktsförlust per daggrader är inte ett mått vi har bra information om, men vi antar att det är cirka 3% över långtidslagring (300 daggrader).</t>
+  </si>
+  <si>
+    <t>Ett ton rena betor är ett ton sockerbetor (endast), med pol = 17%.</t>
+  </si>
+  <si>
+    <t>Acc. sug</t>
   </si>
 </sst>
 </file>
@@ -2420,8 +2432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D177" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2433,12 +2445,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>644</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2447,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>643</v>
+        <v>595</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,A2,", ",A2,C2,A2,", ",A2,D2,A2,",")</f>
@@ -2456,10 +2468,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2474,10 +2486,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B4" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2492,10 +2504,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B5" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2510,10 +2522,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2528,47 +2540,47 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>626</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>"ATE", "Factory", "Örtofta",</v>
+        <v>"ATE", "Factory", "Fabrik",</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B9" t="s">
-        <v>645</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ref="F10:F39" si="1">CONCATENATE(A10,B10,A10,", ",A10,C10,A10,", ",A10,D10,A10,",")</f>
@@ -2577,16 +2589,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>576</v>
+        <v>545</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -2595,16 +2607,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>577</v>
+        <v>546</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -2613,52 +2625,52 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>"BAD", "It's purpose is to help explore the factors that drive successful harvest and storage strategies.", "Syftet är att hjälpa till att utforska de faktorer som driver framgångsrika skörde- och lagringsstrategier.",</v>
+        <v>"BAD", "It's purpose is to help explore the factors that drive successful harvest and storage strategies.", "Syftet med modellen är att hjälpa till att utforska de faktorer som påverkar skörde- och lagringsstrategier.",</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B14" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
-        <v>"BAE", "The model is general and may not be suitable to apply to your own production system.", "Modellen är generell och kanske inte lämplig för ditt eget produktionssystem.",</v>
+        <v>"BAE", "The model is general and may not be suitable to apply to your own production system.", "Modellen är generell och kanske inte lämplig för just ditt eget produktionssystem.",</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -2667,16 +2679,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -2685,34 +2697,34 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B17" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>582</v>
+        <v>629</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>"BAH", "The 2021 price model for Sweden is applied. Prices are assumed fixed in SEK.", "Prismodellen 2021 för Sverige tillämpas. Priserna antas fasta i SEK.",</v>
+        <v>"BAH", "The 2021 price model for Sweden is applied. Prices are assumed fixed in SEK.", "Prismodellen 2021 för Sverige tillämpas.",</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B18" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
@@ -2721,70 +2733,70 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B19" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>"BAJ", "Basically, just work through the tabs.", "Det är bara att går igenom flikarna",</v>
+        <v>"BAJ", "Basically, just work through the tabs.", "Det är bara att klicka igenom flikarna ovan och fylla i informationen som efterfrågas.",</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B20" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>"BAK", "The default values set are those that approximately reflect the industry averages.", "Standardvärdena är de som ungefär återspeglar branschens genomsnitt.",</v>
+        <v>"BAK", "The default values set are those that approximately reflect the industry averages.", "De förifyllda värdena är de som ungefär återspeglar branschens genomsnitt.",</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>"BAL", "If you are unsure what is an appropriate value, either take the default, or set the value to an extreme value and see what happens.", "Om du är osäker på vad som är ett lämpligt värde, antingen ta standard, eller ställ in värdet till ett extremt värde och se vad som händer.",</v>
+        <v>"BAL", "If you are unsure what is an appropriate value, either take the default, or set the value to an extreme value and see what happens.", "Om du är osäker på vad som är ett lämpligt värde så utgå från ditt femårssnitt, eller sätt in ett extremvärde och se vad som händer.",</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>659</v>
+        <v>609</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -2793,16 +2805,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B23" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>584</v>
+        <v>549</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -2811,34 +2823,34 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B24" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>"BAO", "Please note that the cost information in the Delivery tab is not well developed.", "Observera att kostnadsinformationen på fliken Leverans inte är väl utvecklad.",</v>
+        <v>"BAO", "Please note that the cost information in the Delivery tab is not well developed.", "Observera att kostnadsinformationen på fliken Leverans inte är  helt färdigutvecklad.",</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -2847,70 +2859,70 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
-        <v>"BAQ", "Clean (mass): The beet mass that is deemed processible.", "Ren betor (produktion): Betmassa som är ",</v>
+        <v>"BAQ", "Clean (mass): The beet mass that is deemed processible.", "Rena betor (produktion): Tvättade betor minus administrativt avdrag.",</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>587</v>
+        <v>634</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
-        <v>"BAR", "The term on which root yield is commonly defined.", "Termen på vilken rotskörd vanligen definieras",</v>
+        <v>"BAR", "The term on which root yield is commonly defined.", "Termen som vanligen används för att definiera rotskörd.",</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B28" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
-        <v>"BAS", "The mass is independent of sugar concentration.", "Massan är oberoende av sockerhalten",</v>
+        <v>"BAS", "The mass is independent of sugar concentration.", "Betvikten är oberoende av sockerhalten",</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -2919,34 +2931,34 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>"BAU", "Clean (prices): The price per tonne of clean beet mass, are adjusted to be for a pol of 17%.", "Ren betor (pris) eller 'Ren betor (17%)': Priset per ton ren betor justeras till en pol på 17%",</v>
+        <v>"BAU", "Clean (prices): The price per tonne of clean beet mass, are adjusted to be for a pol of 17%.", "Rena betor (pris) eller 'Rena betor (17%)': Priset per ton ren betor justeras till en pol på 17%",</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B31" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -2955,16 +2967,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B32" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -2973,34 +2985,34 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B33" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
-        <v>"BAX", "The conversion to 17% is linear in the change in price per change in pol percentage point.", "Omräkningen till 17% är linjär i förändringen av pris per förändring i pol procenten.",</v>
+        <v>"BAX", "The conversion to 17% is linear in the change in price per change in pol percentage point.", "Omräkningen till 17% är linjär i förändringen av pris per förändring i pol.",</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B34" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -3009,88 +3021,88 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B35" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>593</v>
+        <v>639</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
-        <v>"BAZ", "The contract price is for a pol of 17%.", "Kontraktspriset är för en pol på 17%",</v>
+        <v>"BAZ", "The contract price is for a pol of 17%.", "Kontraktspriset är för en sockerhalt på 17%",</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
-        <v>"BBA", "If your pol is higher than this, then the prices per tonne clean given in this model will be higher than your contract price.", "Om din pol är högre än så är priserna per ton ren betor som anges i denna modell högre än ditt kontraktspris.",</v>
+        <v>"BBA", "If your pol is higher than this, then the prices per tonne clean given in this model will be higher than your contract price.", "Om din sockerhalt är högre än så är priserna per ton ren betor som anges i denna modell högre än ditt kontraktspris.",</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>594</v>
+        <v>641</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
-        <v>"BBB", "Delivered: The mass that falls out of the back of the truck at Örtofta.", "Levererad: Massan som faller ut ur lastbilen på Örtofta.",</v>
+        <v>"BBB", "Delivered: The mass that falls out of the back of the truck at Örtofta.", "Levererad: Ton orena betor som levererats till Örtofta.",</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B38" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>595</v>
+        <v>642</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
-        <v>"BBC", "A large fraction of the mass is soil and unprocessable beet material (dirt tare).", "En stor bråkdel av massan är jord och obearbetat betmaterial",</v>
+        <v>"BBC", "A large fraction of the mass is soil and unprocessable beet material (dirt tare).", "En stor del av vikten är jord och icke processbart betmaterial",</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
@@ -3099,29 +3111,29 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B41" t="s">
-        <v>646</v>
+        <v>598</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B42" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
         <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" ref="F42:F57" si="2">CONCATENATE(A42,B42,A42,", ",A42,C42,A42,", ",A42,D42,A42,",")</f>
@@ -3130,16 +3142,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B43" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
         <v>45</v>
-      </c>
-      <c r="D43" t="s">
-        <v>46</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="2"/>
@@ -3148,52 +3160,52 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>643</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
-        <v>"CAC", "VARIETY STRENGTH", "SORT STRYKA",</v>
+        <v>"CAC", "VARIETY STRENGTH", "SORTENS HÅLLFASTHET",</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>644</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
-        <v>"CAD", "Variety type", "Sort typ",</v>
+        <v>"CAD", "Variety type", "Sorttyp",</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B46" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="2"/>
@@ -3202,16 +3214,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B47" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="C47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="2"/>
@@ -3220,16 +3232,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B48" t="s">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
@@ -3238,34 +3250,34 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B49" t="s">
-        <v>366</v>
+        <v>337</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>645</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
-        <v>"CAH", "Variety strength (relative)", "Sort stryka (relativt)",</v>
+        <v>"CAH", "Variety strength (relative)", "Sortens hållfasthet (relativt)",</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B50" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
@@ -3274,16 +3286,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="2"/>
@@ -3292,16 +3304,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B52" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="2"/>
@@ -3310,16 +3322,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C53" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="2"/>
@@ -3328,16 +3340,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B54" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="2"/>
@@ -3346,16 +3358,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B55" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="2"/>
@@ -3364,16 +3376,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B56" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="2"/>
@@ -3382,16 +3394,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B57" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="2"/>
@@ -3400,29 +3412,29 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B59" t="s">
-        <v>647</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" ref="F60:F68" si="3">CONCATENATE(A60,B60,A60,", ",A60,C60,A60,", ",A60,D60,A60,",")</f>
@@ -3431,16 +3443,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>664</v>
+        <v>610</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="3"/>
@@ -3449,16 +3461,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="3"/>
@@ -3467,34 +3479,34 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="3"/>
-        <v>"DAD", "Soil moisture at harvest (percent of ideal (%)", "Mark fuktighet vid upptagning (procent ideella (%)",</v>
+        <v>"DAD", "Soil moisture at harvest (percent of ideal (%)", "Mark fuktighet vid upptagning, 100% på skalan är optimalt",</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="C64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="3"/>
@@ -3503,16 +3515,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="3"/>
@@ -3521,16 +3533,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="3"/>
@@ -3539,16 +3551,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" si="3"/>
@@ -3557,16 +3569,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="3"/>
@@ -3575,29 +3587,29 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B70" t="s">
-        <v>648</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B71" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" ref="F71:F90" si="4">CONCATENATE(A71,B71,A71,", ",A71,C71,A71,", ",A71,D71,A71,",")</f>
@@ -3606,34 +3618,34 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>647</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
-        <v>"EAB", "Date of cover with TopTex", "Datum TopTex sattes på",</v>
+        <v>"EAB", "Date of cover with TopTex", "Datum då TopTex sattes på",</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="4"/>
@@ -3642,16 +3654,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B74" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D74" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="4"/>
@@ -3660,70 +3672,70 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B75" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>648</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
-        <v>"EAE", "Temperature date from which year?", "Temperaturdata från vilket år?",</v>
+        <v>"EAE", "Temperature date from which year?", "Ange vilket år du vill använda temperaturdata ifrån",</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B76" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="4"/>
-        <v>"EAF", "Clamp width at base (m)", "Stuk bredd vid botten (m)",</v>
+        <v>"EAF", "Clamp width at base (m)", "Stukans bredd vid botten (m)",</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B77" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="C77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>650</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
-        <v>"EAG", "Clamp temperature floor (°C)", "Stuktemperatur golv (°C)",</v>
+        <v>"EAG", "Clamp temperature floor (°C)", "Stuktemperatur med fast lägstanivå (°C)",</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B78" t="s">
-        <v>391</v>
+        <v>362</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="4"/>
@@ -3732,16 +3744,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B79" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="4"/>
@@ -3750,16 +3762,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="4"/>
@@ -3768,16 +3780,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B81" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="4"/>
@@ -3786,16 +3798,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B82" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="C82" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="4"/>
@@ -3804,16 +3816,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="C83" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="4"/>
@@ -3822,16 +3834,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B84" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="4"/>
@@ -3840,16 +3852,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="4"/>
@@ -3858,34 +3870,34 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B86" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>651</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
-        <v>"EDF", "Clamp pol loss", "Stuka pol förlust",</v>
+        <v>"EDF", "Clamp pol loss", "Minskad sockerhalt under lagringen",</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="4"/>
@@ -3894,16 +3906,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B88" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="4"/>
@@ -3912,16 +3924,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
@@ -3930,16 +3942,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="C90" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="4"/>
@@ -3948,29 +3960,29 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B92" t="s">
-        <v>649</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B93" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" ref="F93:F105" si="5">CONCATENATE(A93,B93,A93,", ",A93,C93,A93,", ",A93,D93,A93,",")</f>
@@ -3979,16 +3991,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="C94" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="5"/>
@@ -3997,16 +4009,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="5"/>
@@ -4015,52 +4027,52 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B96" t="s">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
-        <v>128</v>
+        <v>652</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="5"/>
-        <v>"FAD", "Distance to deliver (mil)", "Distans av leverans (mil)",</v>
+        <v>"FAD", "Distance to deliver (mil)", "Avstånd till fabrik (mil)",</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>653</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="5"/>
-        <v>"FAE", "Cost for delivery", "Leverans kostnad",</v>
+        <v>"FAE", "Cost for delivery", "Leveranskostnad",</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B98" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="5"/>
@@ -4069,10 +4081,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>381</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -4087,16 +4099,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B100" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="5"/>
@@ -4105,16 +4117,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B101" t="s">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="5"/>
@@ -4123,16 +4135,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B102" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="C102" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="5"/>
@@ -4141,16 +4153,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B103" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D103" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="5"/>
@@ -4159,65 +4171,65 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D104" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="5"/>
-        <v>"FTF", "Cost per clean tonne (SEK)", "Kostnad per ton ren betor (SEK)",</v>
+        <v>"FTF", "Cost per clean tonne (SEK)", "Kostnad per ton rena betor (SEK)",</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="C105" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>655</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="5"/>
-        <v>"FTG", "Cost of soil transport (SEK)", "Kostnad jordtransport (SEK)",</v>
+        <v>"FTG", "Cost of soil transport (SEK)", "Kostnad för jordtransport (SEK)",</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B107" t="s">
-        <v>650</v>
+        <v>602</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D108" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" ref="F108:F132" si="6">CONCATENATE(A108,B108,A108,", ",A108,C108,A108,", ",A108,D108,A108,",")</f>
@@ -4226,16 +4238,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B109" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="C109" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D109" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="6"/>
@@ -4244,34 +4256,34 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B110" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="C110" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>656</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="6"/>
-        <v>"GAC", "Date production data from:", "Datum produktion data från:",</v>
+        <v>"GAC", "Date production data from:", "Datum när nedanstående skörd uppmätts: (tidigast möjliga datum är 15 sept)",</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B111" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="C111" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="6"/>
@@ -4280,16 +4292,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B112" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="6"/>
@@ -4298,16 +4310,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B113" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="6"/>
@@ -4316,16 +4328,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B114" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="6"/>
@@ -4334,16 +4346,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B115" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D115" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="6"/>
@@ -4352,34 +4364,34 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B116" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D116" t="s">
-        <v>159</v>
+        <v>657</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="6"/>
-        <v>"GAI", "Your contract price (SEK)", "Din kontrakt pris (SEK)",</v>
+        <v>"GAI", "Your contract price (SEK)", "Ditt kontrakterade pris (SEK)",</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B117" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="C117" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D117" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="6"/>
@@ -4388,16 +4400,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B118" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="C118" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D118" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="6"/>
@@ -4406,16 +4418,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B119" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="C119" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D119" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="6"/>
@@ -4424,16 +4436,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B120" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="C120" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D120" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="6"/>
@@ -4442,16 +4454,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B121" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="6"/>
@@ -4460,16 +4472,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B122" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D122" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="6"/>
@@ -4478,73 +4490,73 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B123" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C123" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D123" t="s">
-        <v>171</v>
+        <v>658</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="6"/>
-        <v>"GTE", "Grown", "Växt",</v>
+        <v>"GTE", "Grown", "Växer i fält vid upptagning",</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D124" t="s">
-        <v>173</v>
+        <v>659</v>
       </c>
       <c r="E124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="6"/>
-        <v>"GTF", "Harvested", "Upptagen",</v>
+        <v>"GTF", "Harvested", "Skördat",</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="6"/>
-        <v>"GTG", "Delivery", "Levererad",</v>
+        <v>"GTG", "Delivery", "Levererat",</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="D126" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="6"/>
@@ -4553,10 +4565,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -4571,52 +4583,52 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B128" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="6"/>
-        <v>"GTJ", "Tonne - delivered", "Ton - levererad",</v>
+        <v>"GTJ", "Tonne - delivered", "Ton - levererat",</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B129" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D129" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="6"/>
-        <v>"GTK", "Tonne - clean", "Ton - ren betor",</v>
+        <v>"GTK", "Tonne - clean", "Ton - rena betor",</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="C130" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D130" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="6"/>
@@ -4625,16 +4637,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B131" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D131" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="6"/>
@@ -4643,16 +4655,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B132" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="6"/>
@@ -4661,29 +4673,29 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B134" t="s">
-        <v>651</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B135" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" ref="F135:F158" si="7">CONCATENATE(A135,B135,A135,", ",A135,C135,A135,", ",A135,D135,A135,",")</f>
@@ -4692,52 +4704,52 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B136" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>187</v>
+        <v>664</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="7"/>
-        <v>"HAB", "Restrict data start date to harvest date", "Begränsa data startdatum till upptagningsdatum",</v>
+        <v>"HAB", "Restrict data start date to harvest date", "Begränsa data  till upptagningsdatum",</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B137" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="C137" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>663</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="7"/>
-        <v>"HAC", "Restrict data end date to delivery date", "Begränsa data slutdatum till leveransdatum",</v>
+        <v>"HAC", "Restrict data end date to delivery date", "Begränsa data  till leveransdatum",</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B138" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D138" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="7"/>
@@ -4746,16 +4758,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B139" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D139" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="7"/>
@@ -4764,16 +4776,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B140" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="C140" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D140" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="7"/>
@@ -4782,16 +4794,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B141" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="C141" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D141" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="7"/>
@@ -4800,52 +4812,52 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B142" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="C142" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="D142" t="s">
-        <v>574</v>
+        <v>665</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="7"/>
-        <v>"HTD", "Cum. Temp (°Cd)", " Cum. Temp (°Cd)",</v>
+        <v>"HTD", "Cum. Temp (°Cd)", "Acc. Temp (°Cd)",</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B143" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="C143" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
-        <v>575</v>
+        <v>666</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="7"/>
-        <v>"HTE", "Cum. pol loss (%)", " Cum pol förlust (%)",</v>
+        <v>"HTE", "Cum. pol loss (%)", "Acc pol förlust (%)",</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B144" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D144" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="7"/>
@@ -4854,16 +4866,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B145" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="C145" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D145" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="7"/>
@@ -4872,16 +4884,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B146" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="C146" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D146" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="7"/>
@@ -4890,70 +4902,70 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B147" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="C147" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D147" t="s">
-        <v>202</v>
+        <v>667</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="7"/>
-        <v>"HTI", "Base price - clean tn", "Baspris per ton ren betor",</v>
+        <v>"HTI", "Base price - clean tn", "Baspris per ton rena betor",</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B148" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D148" t="s">
-        <v>204</v>
+        <v>668</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="7"/>
-        <v>"HTJ", "Bonus - clean tn", "Bonus per ton ren betor",</v>
+        <v>"HTJ", "Bonus - clean tn", "Bonus per ton rena betor",</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B149" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D149" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="7"/>
-        <v>"HTK", "Payment - clean tn", "Totall betalning per ton ren betor",</v>
+        <v>"HTK", "Payment - clean tn", "Totall betalning per ton rena betor",</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B150" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="C150" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D150" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="7"/>
@@ -4962,16 +4974,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B151" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="C151" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D151" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="7"/>
@@ -4980,34 +4992,34 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B152" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="C152" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D152" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="7"/>
-        <v>"HTN", "Payment - delivered tn", "Totall betalning per ton levererad",</v>
+        <v>"HTN", "Payment - delivered tn", "Total betalning per ton levererad",</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B153" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="C153" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="D153" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="7"/>
@@ -5016,16 +5028,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B154" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="C154" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D154" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="7"/>
@@ -5034,16 +5046,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B155" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="D155" t="s">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="7"/>
@@ -5052,16 +5064,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B156" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="C156" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D156" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="7"/>
@@ -5070,16 +5082,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B157" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="C157" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D157" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="7"/>
@@ -5088,16 +5100,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B158" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C158" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D158" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="7"/>
@@ -5106,65 +5118,65 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B160" t="s">
-        <v>652</v>
+        <v>604</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B161" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="C161" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D161" t="s">
-        <v>222</v>
+        <v>671</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" ref="F161:F178" si="8">CONCATENATE(A161,B161,A161,", ",A161,C161,A161,", ",A161,D161,A161,",")</f>
-        <v>"IAA", "PRODUCTION - CHARTS", "PRODUCTION - DIAGRAM",</v>
+        <v>"IAA", "PRODUCTION - CHARTS", "PRODUKTION - DIAGRAM",</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B162" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="C162" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D162" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="8"/>
-        <v>"IDA", "Cum. sug", "Cum. sug",</v>
+        <v>"IDA", "Cum. sug", "Sockerskörd",</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B163" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D163" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="8"/>
@@ -5173,16 +5185,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B164" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="C164" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D164" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="8"/>
@@ -5191,16 +5203,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B165" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="C165" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D165" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="8"/>
@@ -5209,70 +5221,70 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B166" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D166" t="s">
-        <v>196</v>
+        <v>674</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="8"/>
-        <v>"IDE", "Pol", "Pol",</v>
+        <v>"IDE", "Pol", "Sockerhalt",</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B167" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="C167" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D167" t="s">
-        <v>227</v>
+        <v>672</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="8"/>
-        <v>"IDF", "Cum. % loss", "Cum. % förlust",</v>
+        <v>"IDF", "Cum. % loss", "Acc. % förlust",</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B168" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="C168" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D168" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="8"/>
-        <v>"IDG", "Pol (%)", "Pol (%)",</v>
+        <v>"IDG", "Pol (%)", "Sockerhalt (%)",</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B169" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="C169" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D169" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="8"/>
@@ -5281,16 +5293,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B170" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="C170" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="8"/>
@@ -5299,34 +5311,34 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B171" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="C171" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="D171" t="s">
-        <v>231</v>
+        <v>673</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
-        <v>"IDJ", "Cum. mass", "Cum. massa",</v>
+        <v>"IDJ", "Cum. mass", "Ton rena betor",</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B172" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="C172" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D172" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="8"/>
@@ -5335,16 +5347,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B173" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="C173" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D173" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="8"/>
@@ -5353,16 +5365,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B174" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="C174" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D174" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="8"/>
@@ -5371,34 +5383,34 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B175" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D175" t="s">
-        <v>235</v>
+        <v>675</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
-        <v>"IDN", "Cum. temperature", "Cum. temperatur",</v>
+        <v>"IDN", "Cum. temperature", "Acc. daggrader",</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B176" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D176" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="8"/>
@@ -5407,16 +5419,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B177" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="C177" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D177" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="8"/>
@@ -5425,16 +5437,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B178" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C178" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D178" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="8"/>
@@ -5443,29 +5455,29 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B180" t="s">
-        <v>653</v>
+        <v>605</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B181" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="C181" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D181" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" ref="F181:F193" si="9">CONCATENATE(A181,B181,A181,", ",A181,C181,A181,", ",A181,D181,A181,",")</f>
@@ -5474,16 +5486,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B182" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="C182" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D182" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="9"/>
@@ -5492,34 +5504,34 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B183" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="C183" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D183" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="9"/>
-        <v>"JDB", "Bonus payment", "Bonuspris",</v>
+        <v>"JDB", "Bonus payment", "Bonus",</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B184" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="C184" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D184" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="9"/>
@@ -5528,16 +5540,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B185" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="C185" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D185" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="9"/>
@@ -5546,16 +5558,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B186" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C186" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="D186" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="9"/>
@@ -5564,34 +5576,34 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B187" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="C187" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="D187" t="s">
-        <v>249</v>
+        <v>676</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="9"/>
-        <v>"JDF", "INCOME PER HECTARE", "INKOMST PER HEKTAR",</v>
+        <v>"JDF", "INCOME PER HECTARE", "INTÄKT PER HEKTAR",</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B188" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="C188" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="D188" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="9"/>
@@ -5600,34 +5612,34 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B189" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="C189" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="D189" t="s">
-        <v>253</v>
+        <v>677</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="9"/>
-        <v>"JDH", "INCOME PER FIELD", "INKOMST PER FÄLT",</v>
+        <v>"JDH", "INCOME PER FIELD", "INTÄKT PER FÄLT",</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B190" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="C190" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="D190" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="9"/>
@@ -5636,34 +5648,34 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B191" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="C191" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="D191" t="s">
-        <v>257</v>
+        <v>678</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="9"/>
-        <v>"JDJ", "INCOME PER CLEAN (17%) TON", "INKOMST PER TON RENBETOR (17%)",</v>
+        <v>"JDJ", "INCOME PER CLEAN (17%) TON", "INTÄKT PER TON RENBETOR (17%)",</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B192" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="C192" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="D192" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="9"/>
@@ -5672,47 +5684,47 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B193" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="C193" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="D193" t="s">
-        <v>259</v>
+        <v>679</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="9"/>
-        <v>"JDL", "INCOME PER DELIVERED (17%) TON", "INKOMST PER TON LEVERERADBETOR (17%)",</v>
+        <v>"JDL", "INCOME PER DELIVERED (17%) TON", "INTÄKT PER TON LEVERERADBETOR (17%)",</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B195" t="s">
-        <v>654</v>
+        <v>606</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B196" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="C196" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="D196" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" ref="F196:F201" si="10">CONCATENATE(A196,B196,A196,", ",A196,C196,A196,", ",A196,D196,A196,",")</f>
@@ -5721,16 +5733,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B197" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="C197" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D197" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="10"/>
@@ -5739,34 +5751,34 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B198" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="C198" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D198" t="s">
-        <v>223</v>
+        <v>692</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="10"/>
-        <v>"KDA", "Cum. sug", "Cum. sug",</v>
+        <v>"KDA", "Cum. sug", "Acc. sug",</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B199" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="C199" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D199" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="10"/>
@@ -5775,16 +5787,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B200" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="C200" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D200" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F200" t="str">
         <f t="shared" si="10"/>
@@ -5793,16 +5805,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B201" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="C201" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D201" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="10"/>
@@ -5811,39 +5823,39 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B204" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B206" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C206" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" t="s">
         <v>43</v>
-      </c>
-      <c r="D206" t="s">
-        <v>44</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" ref="F206:F211" si="11">CONCATENATE(A206,B206,A206,", ",A206,C206,A206,", ",A206,D206,A206,",")</f>
@@ -5852,16 +5864,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B207" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="C207" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="D207" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="11"/>
@@ -5870,16 +5882,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B208" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="C208" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="D208" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="11"/>
@@ -5888,16 +5900,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B209" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="C209" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="D209" t="s">
-        <v>675</v>
+        <v>614</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="11"/>
@@ -5906,16 +5918,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B210" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="C210" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="D210" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="11"/>
@@ -5924,16 +5936,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B211" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="C211" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="D211" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="11"/>
@@ -5942,21 +5954,21 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B213" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="C213" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D213" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" ref="F213:F220" si="12">CONCATENATE(A213,B213,A213,", ",A213,C213,A213,", ",A213,D213,A213,",")</f>
@@ -5965,16 +5977,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B214" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="C214" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D214" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="12"/>
@@ -5983,16 +5995,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B215" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="C215" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="D215" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="12"/>
@@ -6001,16 +6013,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B216" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="C216" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="D216" t="s">
-        <v>677</v>
+        <v>616</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="12"/>
@@ -6019,16 +6031,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B217" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="C217" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D217" t="s">
-        <v>678</v>
+        <v>617</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="12"/>
@@ -6037,16 +6049,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B218" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="C218" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D218" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="12"/>
@@ -6055,16 +6067,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B219" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="C219" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D219" t="s">
-        <v>679</v>
+        <v>618</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="12"/>
@@ -6073,16 +6085,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B220" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="C220" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D220" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="12"/>
@@ -6091,26 +6103,26 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B223" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="C223" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D223" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" ref="F223:F232" si="13">CONCATENATE(A223,B223,A223,", ",A223,C223,A223,", ",A223,D223,A223,",")</f>
@@ -6119,16 +6131,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B224" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="C224" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D224" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="13"/>
@@ -6137,16 +6149,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B225" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="C225" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D225" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="13"/>
@@ -6155,16 +6167,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B226" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="C226" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D226" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="13"/>
@@ -6173,34 +6185,34 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B227" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="C227" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D227" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="13"/>
-        <v>"DHE", "The higher your damage score, the higher your rate of loss will be for each degree-day (shown on STORAGE tab).", "Ju högre din skada blir, desto högre blir din förlustnivå för varje daggrader (visas på fliken LAGRING).",</v>
+        <v>"DHE", "The higher your damage score, the higher your rate of loss will be for each degree-day (shown on STORAGE tab).", "Ju högre din skada blir, desto högre blir din förlustnivå för varje daggrad (visas på fliken LAGRING).",</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B228" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="C228" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D228" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="13"/>
@@ -6209,16 +6221,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B229" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="C229" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="D229" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="13"/>
@@ -6227,16 +6239,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B230" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="C230" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D230" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="13"/>
@@ -6245,16 +6257,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B231" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="C231" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="D231" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="13"/>
@@ -6263,44 +6275,44 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B232" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="C232" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D232" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="13"/>
-        <v>"DHJ", "Sources: IIRB and industry experience", "Källor: IIRB och Industri erfarenhet",</v>
+        <v>"DHJ", "Sources: IIRB and industry experience", "Källor: IIRB och erfarenheter från industrin",</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B235" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="C235" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D235" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" ref="F235:F243" si="14">CONCATENATE(A235,B235,A235,", ",A235,C235,A235,", ",A235,D235,A235,",")</f>
@@ -6309,16 +6321,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B236" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="C236" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D236" t="s">
-        <v>613</v>
+        <v>571</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="14"/>
@@ -6327,16 +6339,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B237" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="C237" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="D237" t="s">
-        <v>614</v>
+        <v>572</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="14"/>
@@ -6345,16 +6357,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B238" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="C238" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="D238" t="s">
-        <v>615</v>
+        <v>573</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="14"/>
@@ -6363,34 +6375,34 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B239" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="C239" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D239" t="s">
-        <v>616</v>
+        <v>682</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="14"/>
-        <v>"EHE", "A wider clamp will build more heat than a thinner one.", "En bredare stuka kommer att bygga mer värme än en tunnare.",</v>
+        <v>"EHE", "A wider clamp will build more heat than a thinner one.", "En bredare stuka kommer att bygga mer värme än en smalare.",</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B240" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="C240" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="D240" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="14"/>
@@ -6399,16 +6411,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B241" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="C241" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="D241" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="14"/>
@@ -6417,34 +6429,34 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B242" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="C242" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D242" t="s">
-        <v>619</v>
+        <v>683</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="14"/>
-        <v>"EHH", "The date the clamp is covered with TopTex is only used to determine the TopTex bonus.", "Det datum stukan är täckt med TopTex används endast för att bestämma TopTex bonusen.",</v>
+        <v>"EHH", "The date the clamp is covered with TopTex is only used to determine the TopTex bonus.", "Det datum stukan täcktes med TopTex, används endast för att bestämma TopTex bonusen.",</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B243" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="C243" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="D243" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="14"/>
@@ -6453,75 +6465,75 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B245" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="C245" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D245" t="s">
-        <v>621</v>
+        <v>684</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" ref="F245:F254" si="15">CONCATENATE(A245,B245,A245,", ",A245,C245,A245,", ",A245,D245,A245,",")</f>
-        <v>"EHJ", "STORAGE LOSS MODEL", "LAGRINGSFÖRLUSTMODELL",</v>
+        <v>"EHJ", "STORAGE LOSS MODEL", "MODELL FÖR LAGRINGSFÖRLUSTER",</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B246" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="C246" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="D246" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="15"/>
-        <v>"EHK", "The Loss Models are different ways of defining the relationship between storage loss and degree-days in the clamp.", "Lagringsförlustmodellerna är olika sätt att definiera sambandet mellan lagringsförlust och daggrader stukan.",</v>
+        <v>"EHK", "The Loss Models are different ways of defining the relationship between storage loss and degree-days in the clamp.", "Lagringsförlustmodellerna bygger på sambandet mellan lagringsförlust och antal daggrader stukan.",</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B247" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="C247" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="D247" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="15"/>
-        <v>"EHL", "Degree Day is the sum of the green line in the above graph, for the period your beets are in storage.", "Daggrader är summan av den gröna linjen i grafen ovan, under den period dina betor lagras.",</v>
+        <v>"EHL", "Degree Day is the sum of the green line in the above graph, for the period your beets are in storage.", "Daggrader är summan av den gröna linjen i grafen ovan, under den period betorna lagras.",</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B248" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="C248" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D248" t="s">
-        <v>622</v>
+        <v>577</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="15"/>
@@ -6530,52 +6542,52 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B249" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="C249" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="D249" t="s">
-        <v>623</v>
+        <v>687</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="15"/>
-        <v>"EHM", "The higher your damage score, the higher your rate of sugar loss will be for each degree-day.", "Ju högre din skadaräkning är, desto högre blir din sockerförlust för varje daggrader.",</v>
+        <v>"EHM", "The higher your damage score, the higher your rate of sugar loss will be for each degree-day.", "Ju högre skaderanking du angett, desto högre blir din sockerförlust för varje daggrader.",</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B250" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="C250" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="D250" t="s">
-        <v>624</v>
+        <v>688</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="15"/>
-        <v>"EHN", "Your damage score is the sum of the Variety Strength (IN THE FIELD tab), and Harvest Conditions (HARVEST tab).", "Din skadaräkning är summan av Sort Stryka (I FÄLTET fliken),och skörd förhållande (UPPTAGNING fliken).",</v>
+        <v>"EHN", "Your damage score is the sum of the Variety Strength (IN THE FIELD tab), and Harvest Conditions (HARVEST tab).", "Din skaderanking är summan av Sort Stryka (I FÄLTET fliken),och skörd förhållande (UPPTAGNING fliken).",</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B251" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="C251" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D251" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="15"/>
@@ -6584,52 +6596,52 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B252" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="C252" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="D252" t="s">
-        <v>626</v>
+        <v>689</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="15"/>
-        <v>"EHS", "Mass loss", "Massförlust",</v>
+        <v>"EHS", "Mass loss", "Viktsförlust",</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B253" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="C253" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="D253" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="15"/>
-        <v>"EHP", "Mass loss per degree-day is not a metric we have good information for, but we guess it's about 3% over long-term storage (300 degree-days).", "Massförlust per daggrader är inte ett mått vi har bra information om, men vi antar att det är cirka 3% över långtidslagring (300 daggrader).",</v>
+        <v>"EHP", "Mass loss per degree-day is not a metric we have good information for, but we guess it's about 3% over long-term storage (300 degree-days).", "Viktsförlust per daggrader är inte ett mått vi har bra information om, men vi antar att det är cirka 3% över långtidslagring (300 daggrader).",</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B254" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="C254" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="D254" t="s">
-        <v>627</v>
+        <v>579</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="15"/>
@@ -6638,26 +6650,26 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B257" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="C257" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D257" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" ref="F257:F260" si="16">CONCATENATE(A257,B257,A257,", ",A257,C257,A257,", ",A257,D257,A257,",")</f>
@@ -6666,16 +6678,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B258" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="C258" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D258" t="s">
-        <v>628</v>
+        <v>580</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="16"/>
@@ -6684,16 +6696,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B259" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="C259" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="D259" t="s">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="16"/>
@@ -6702,16 +6714,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B260" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="C260" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="D260" t="s">
-        <v>685</v>
+        <v>620</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="16"/>
@@ -6720,26 +6732,26 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B263" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="C263" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D263" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" ref="F263:F269" si="17">CONCATENATE(A263,B263,A263,", ",A263,C263,A263,", ",A263,D263,A263,",")</f>
@@ -6748,16 +6760,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B264" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="C264" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="D264" t="s">
-        <v>629</v>
+        <v>581</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="17"/>
@@ -6766,16 +6778,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B265" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="C265" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="D265" t="s">
-        <v>630</v>
+        <v>582</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="17"/>
@@ -6784,16 +6796,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B266" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="C266" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="D266" t="s">
-        <v>631</v>
+        <v>583</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="17"/>
@@ -6802,16 +6814,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B267" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="C267" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="D267" t="s">
-        <v>632</v>
+        <v>584</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="17"/>
@@ -6820,16 +6832,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B268" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="C268" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="D268" t="s">
-        <v>633</v>
+        <v>585</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="17"/>
@@ -6838,16 +6850,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B269" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="C269" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D269" t="s">
-        <v>634</v>
+        <v>586</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="17"/>
@@ -6856,26 +6868,26 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B272" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C272" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D272" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" ref="F272:F285" si="18">CONCATENATE(A272,B272,A272,", ",A272,C272,A272,", ",A272,D272,A272,",")</f>
@@ -6884,16 +6896,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B273" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="C273" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="D273" t="s">
-        <v>635</v>
+        <v>587</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="18"/>
@@ -6902,34 +6914,34 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
+        <v>625</v>
+      </c>
+      <c r="B274" t="s">
+        <v>530</v>
+      </c>
+      <c r="C274" t="s">
+        <v>283</v>
+      </c>
+      <c r="D274" t="s">
         <v>691</v>
-      </c>
-      <c r="B274" t="s">
-        <v>559</v>
-      </c>
-      <c r="C274" t="s">
-        <v>312</v>
-      </c>
-      <c r="D274" t="s">
-        <v>686</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="18"/>
-        <v>"HHC", "A Clean Tonne is one tonne of sugar beet (only), with pol = 17%.", "En ton ren betor är ett ton sockerbetor (endast),med pol = 17%.",</v>
+        <v>"HHC", "A Clean Tonne is one tonne of sugar beet (only), with pol = 17%.", "Ett ton rena betor är ett ton sockerbetor (endast), med pol = 17%.",</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B275" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="C275" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="D275" t="s">
-        <v>636</v>
+        <v>588</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="18"/>
@@ -6938,16 +6950,16 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B276" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="C276" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="D276" t="s">
-        <v>637</v>
+        <v>589</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="18"/>
@@ -6956,16 +6968,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B277" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
       <c r="C277" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="D277" t="s">
-        <v>638</v>
+        <v>590</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="18"/>
@@ -6974,16 +6986,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B278" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="C278" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="D278" t="s">
-        <v>639</v>
+        <v>591</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="18"/>
@@ -6992,16 +7004,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B279" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="C279" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D279" t="s">
-        <v>640</v>
+        <v>592</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="18"/>
@@ -7010,16 +7022,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B280" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="C280" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>641</v>
+        <v>593</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="18"/>
@@ -7028,16 +7040,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B281" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="C281" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="D281" t="s">
-        <v>687</v>
+        <v>621</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="18"/>
@@ -7046,16 +7058,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B282" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="C282" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="D282" t="s">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="18"/>
@@ -7064,16 +7076,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B283" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="C283" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="D283" t="s">
-        <v>689</v>
+        <v>623</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="18"/>
@@ -7082,16 +7094,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B284" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="C284" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="D284" t="s">
-        <v>690</v>
+        <v>624</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="18"/>
@@ -7100,16 +7112,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>691</v>
+        <v>625</v>
       </c>
       <c r="B285" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="C285" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="D285" t="s">
-        <v>642</v>
+        <v>594</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="18"/>

--- a/Translations.xlsx
+++ b/Translations.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="692">
   <si>
     <t>AAA</t>
   </si>
@@ -365,18 +365,12 @@
     <t>Sugar loss (% of original)</t>
   </si>
   <si>
-    <t>Socker förlust (% originell)</t>
-  </si>
-  <si>
     <t>Accumulated temperature (°Cd)</t>
   </si>
   <si>
     <t>Storage loss model</t>
   </si>
   <si>
-    <t>Socker förlust modell</t>
-  </si>
-  <si>
     <t>DELIVERY</t>
   </si>
   <si>
@@ -2112,6 +2106,9 @@
   </si>
   <si>
     <t>Acc. sug</t>
+  </si>
+  <si>
+    <t>Sockerförlust (% originell)</t>
   </si>
 </sst>
 </file>
@@ -2432,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D177" workbookViewId="0">
-      <selection activeCell="D198" sqref="D198"/>
+    <sheetView tabSelected="1" topLeftCell="D69" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2445,12 +2442,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -2459,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,A2,", ",A2,C2,A2,", ",A2,D2,A2,",")</f>
@@ -2468,10 +2465,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2486,10 +2483,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -2504,10 +2501,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2522,10 +2519,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2540,16 +2537,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2558,23 +2555,23 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B9" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2589,16 +2586,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -2607,16 +2604,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -2625,16 +2622,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -2643,16 +2640,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -2661,16 +2658,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -2679,16 +2676,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -2697,16 +2694,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -2715,10 +2712,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2733,16 +2730,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
@@ -2751,16 +2748,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -2769,16 +2766,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -2787,16 +2784,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -2805,16 +2802,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -2823,16 +2820,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -2841,16 +2838,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -2859,16 +2856,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -2877,16 +2874,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -2895,16 +2892,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -2913,16 +2910,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B29" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -2931,16 +2928,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B30" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -2949,16 +2946,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -2967,16 +2964,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -2985,16 +2982,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -3003,16 +3000,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B34" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -3021,16 +3018,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B35" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -3039,16 +3036,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -3057,16 +3054,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -3075,16 +3072,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -3093,16 +3090,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B39" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
@@ -3111,23 +3108,23 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B41" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B42" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C42" t="s">
         <v>42</v>
@@ -3142,10 +3139,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
@@ -3160,16 +3157,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B44" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
@@ -3178,16 +3175,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B45" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
@@ -3196,10 +3193,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B46" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -3214,10 +3211,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -3232,10 +3229,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -3250,16 +3247,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B49" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C49" t="s">
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
@@ -3268,10 +3265,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B50" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C50" t="s">
         <v>54</v>
@@ -3286,10 +3283,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B51" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C51" t="s">
         <v>56</v>
@@ -3304,10 +3301,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C52" t="s">
         <v>58</v>
@@ -3322,10 +3319,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -3340,10 +3337,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C54" t="s">
         <v>62</v>
@@ -3358,10 +3355,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B55" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
@@ -3376,10 +3373,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B56" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s">
         <v>66</v>
@@ -3394,10 +3391,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
@@ -3412,23 +3409,23 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B59" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B60" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -3443,16 +3440,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B61" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C61" t="s">
         <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="3"/>
@@ -3461,10 +3458,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B62" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C62" t="s">
         <v>71</v>
@@ -3479,16 +3476,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C63" t="s">
         <v>73</v>
       </c>
       <c r="D63" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="3"/>
@@ -3497,10 +3494,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B64" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C64" t="s">
         <v>74</v>
@@ -3515,10 +3512,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B65" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
@@ -3533,10 +3530,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C66" t="s">
         <v>78</v>
@@ -3551,10 +3548,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B67" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
@@ -3569,10 +3566,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C68" t="s">
         <v>82</v>
@@ -3587,23 +3584,23 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B70" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
@@ -3618,16 +3615,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B72" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C72" t="s">
         <v>86</v>
       </c>
       <c r="D72" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="4"/>
@@ -3636,10 +3633,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C73" t="s">
         <v>87</v>
@@ -3654,10 +3651,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B74" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -3672,16 +3669,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B75" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
         <v>91</v>
       </c>
       <c r="D75" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="4"/>
@@ -3690,16 +3687,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B76" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C76" t="s">
         <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="4"/>
@@ -3708,16 +3705,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B77" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C77" t="s">
         <v>93</v>
       </c>
       <c r="D77" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="4"/>
@@ -3726,10 +3723,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B78" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C78" t="s">
         <v>94</v>
@@ -3744,10 +3741,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
         <v>96</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B80" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C80" t="s">
         <v>98</v>
@@ -3780,10 +3777,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B81" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C81" t="s">
         <v>100</v>
@@ -3798,10 +3795,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B82" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C82" t="s">
         <v>102</v>
@@ -3816,10 +3813,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B83" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C83" t="s">
         <v>104</v>
@@ -3834,10 +3831,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C84" t="s">
         <v>62</v>
@@ -3852,10 +3849,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B85" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
@@ -3870,16 +3867,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B86" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
       </c>
       <c r="D86" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="4"/>
@@ -3888,10 +3885,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B87" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C87" t="s">
         <v>107</v>
@@ -3906,34 +3903,34 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B88" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C88" t="s">
         <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>691</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="4"/>
-        <v>"EDH", "Sugar loss (% of original)", "Socker förlust (% originell)",</v>
+        <v>"EDH", "Sugar loss (% of original)", "Sockerförlust (% originell)",</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="4"/>
@@ -3942,47 +3939,47 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B90" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="4"/>
-        <v>"EDJ", "Storage loss model", "Socker förlust modell",</v>
+        <v>"EDJ", "Storage loss model", "Sockerförlust modell",</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B92" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" ref="F93:F105" si="5">CONCATENATE(A93,B93,A93,", ",A93,C93,A93,", ",A93,D93,A93,",")</f>
@@ -3991,16 +3988,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B94" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="5"/>
@@ -4009,16 +4006,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="5"/>
@@ -4027,16 +4024,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B96" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="5"/>
@@ -4045,16 +4042,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B97" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="5"/>
@@ -4063,16 +4060,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="5"/>
@@ -4081,10 +4078,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -4099,16 +4096,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B100" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="5"/>
@@ -4117,16 +4114,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="5"/>
@@ -4135,16 +4132,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="5"/>
@@ -4153,16 +4150,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="5"/>
@@ -4171,16 +4168,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B104" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D104" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="5"/>
@@ -4189,16 +4186,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C105" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D105" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="5"/>
@@ -4207,29 +4204,29 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B107" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B108" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D108" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" ref="F108:F132" si="6">CONCATENATE(A108,B108,A108,", ",A108,C108,A108,", ",A108,D108,A108,",")</f>
@@ -4238,16 +4235,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B109" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C109" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="6"/>
@@ -4256,16 +4253,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B110" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C110" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D110" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="6"/>
@@ -4274,16 +4271,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B111" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="6"/>
@@ -4292,16 +4289,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B112" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D112" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="6"/>
@@ -4310,16 +4307,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="6"/>
@@ -4328,16 +4325,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B114" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C114" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D114" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="6"/>
@@ -4346,16 +4343,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B115" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="6"/>
@@ -4364,16 +4361,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B116" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C116" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D116" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="6"/>
@@ -4382,16 +4379,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B117" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C117" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="6"/>
@@ -4400,16 +4397,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B118" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="6"/>
@@ -4418,16 +4415,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B119" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="6"/>
@@ -4436,16 +4433,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B120" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D120" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="6"/>
@@ -4454,16 +4451,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C121" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D121" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="6"/>
@@ -4472,16 +4469,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C122" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D122" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="6"/>
@@ -4490,16 +4487,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D123" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="6"/>
@@ -4508,16 +4505,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D124" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E124" t="s">
         <v>28</v>
@@ -4529,16 +4526,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="6"/>
@@ -4547,16 +4544,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C126" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="6"/>
@@ -4565,10 +4562,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B127" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C127" t="s">
         <v>2</v>
@@ -4583,16 +4580,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B128" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C128" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D128" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="6"/>
@@ -4601,16 +4598,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B129" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C129" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D129" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="6"/>
@@ -4619,16 +4616,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B130" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="6"/>
@@ -4637,16 +4634,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B131" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D131" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" si="6"/>
@@ -4655,16 +4652,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B132" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D132" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="6"/>
@@ -4673,29 +4670,29 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B134" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B135" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D135" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" ref="F135:F158" si="7">CONCATENATE(A135,B135,A135,", ",A135,C135,A135,", ",A135,D135,A135,",")</f>
@@ -4704,16 +4701,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B136" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C136" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D136" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="7"/>
@@ -4722,16 +4719,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B137" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C137" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D137" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="7"/>
@@ -4740,16 +4737,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B138" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="7"/>
@@ -4758,16 +4755,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B139" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C139" t="s">
         <v>62</v>
       </c>
       <c r="D139" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="7"/>
@@ -4776,16 +4773,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B140" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C140" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D140" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="7"/>
@@ -4794,16 +4791,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B141" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D141" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="7"/>
@@ -4812,16 +4809,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B142" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D142" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="7"/>
@@ -4830,16 +4827,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B143" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D143" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="7"/>
@@ -4848,16 +4845,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B144" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C144" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D144" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="7"/>
@@ -4866,16 +4863,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B145" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C145" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="7"/>
@@ -4884,16 +4881,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B146" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D146" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="7"/>
@@ -4902,16 +4899,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B147" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D147" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="7"/>
@@ -4920,16 +4917,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B148" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C148" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D148" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="7"/>
@@ -4938,16 +4935,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B149" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D149" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="7"/>
@@ -4956,16 +4953,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B150" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C150" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D150" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="7"/>
@@ -4974,16 +4971,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B151" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="7"/>
@@ -4992,16 +4989,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B152" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C152" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D152" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="7"/>
@@ -5010,16 +5007,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B153" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C153" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D153" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="7"/>
@@ -5028,16 +5025,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B154" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C154" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D154" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="7"/>
@@ -5046,16 +5043,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B155" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C155" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D155" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="7"/>
@@ -5064,16 +5061,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B156" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C156" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D156" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="7"/>
@@ -5082,16 +5079,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B157" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C157" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D157" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="7"/>
@@ -5100,16 +5097,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B158" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D158" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="7"/>
@@ -5118,29 +5115,29 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B160" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B161" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C161" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D161" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" ref="F161:F178" si="8">CONCATENATE(A161,B161,A161,", ",A161,C161,A161,", ",A161,D161,A161,",")</f>
@@ -5149,16 +5146,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B162" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C162" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D162" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="8"/>
@@ -5167,16 +5164,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B163" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C163" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D163" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="8"/>
@@ -5185,10 +5182,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B164" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C164" t="s">
         <v>62</v>
@@ -5203,16 +5200,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C165" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D165" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="8"/>
@@ -5221,16 +5218,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B166" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D166" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="8"/>
@@ -5239,16 +5236,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B167" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C167" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D167" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="8"/>
@@ -5257,16 +5254,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B168" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C168" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D168" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="8"/>
@@ -5275,10 +5272,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B169" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C169" t="s">
         <v>62</v>
@@ -5293,16 +5290,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B170" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C170" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D170" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="8"/>
@@ -5311,16 +5308,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B171" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C171" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D171" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
@@ -5329,16 +5326,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B172" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C172" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D172" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="8"/>
@@ -5347,10 +5344,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B173" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C173" t="s">
         <v>62</v>
@@ -5365,16 +5362,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B174" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C174" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D174" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="8"/>
@@ -5383,16 +5380,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B175" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C175" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D175" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
@@ -5401,16 +5398,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B176" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C176" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D176" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="8"/>
@@ -5419,10 +5416,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B177" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C177" t="s">
         <v>62</v>
@@ -5437,16 +5434,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B178" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D178" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="8"/>
@@ -5455,29 +5452,29 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B180" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B181" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C181" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D181" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" ref="F181:F193" si="9">CONCATENATE(A181,B181,A181,", ",A181,C181,A181,", ",A181,D181,A181,",")</f>
@@ -5486,16 +5483,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B182" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C182" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D182" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="9"/>
@@ -5504,16 +5501,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B183" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C183" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D183" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="9"/>
@@ -5522,16 +5519,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B184" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C184" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D184" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="9"/>
@@ -5540,10 +5537,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B185" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C185" t="s">
         <v>62</v>
@@ -5558,16 +5555,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B186" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C186" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D186" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="9"/>
@@ -5576,16 +5573,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B187" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C187" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D187" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="9"/>
@@ -5594,16 +5591,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B188" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C188" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D188" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="9"/>
@@ -5612,16 +5609,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B189" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C189" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D189" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="9"/>
@@ -5630,16 +5627,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B190" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C190" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D190" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="9"/>
@@ -5648,16 +5645,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B191" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C191" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D191" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="9"/>
@@ -5666,16 +5663,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B192" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C192" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D192" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="9"/>
@@ -5684,16 +5681,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B193" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C193" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D193" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="9"/>
@@ -5702,29 +5699,29 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B195" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B196" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C196" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D196" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" ref="F196:F201" si="10">CONCATENATE(A196,B196,A196,", ",A196,C196,A196,", ",A196,D196,A196,",")</f>
@@ -5733,16 +5730,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B197" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C197" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D197" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="10"/>
@@ -5751,16 +5748,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B198" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C198" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D198" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="10"/>
@@ -5769,16 +5766,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B199" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D199" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="10"/>
@@ -5787,10 +5784,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B200" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C200" t="s">
         <v>62</v>
@@ -5805,16 +5802,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B201" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D201" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="10"/>
@@ -5823,33 +5820,33 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B204" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B206" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C206" t="s">
         <v>42</v>
@@ -5864,16 +5861,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B207" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C207" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D207" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="11"/>
@@ -5882,16 +5879,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B208" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C208" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D208" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="11"/>
@@ -5900,16 +5897,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B209" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C209" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D209" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="11"/>
@@ -5918,16 +5915,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B210" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C210" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D210" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="11"/>
@@ -5936,16 +5933,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B211" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C211" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D211" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="11"/>
@@ -5954,21 +5951,21 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B213" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C213" t="s">
         <v>54</v>
       </c>
       <c r="D213" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" ref="F213:F220" si="12">CONCATENATE(A213,B213,A213,", ",A213,C213,A213,", ",A213,D213,A213,",")</f>
@@ -5977,16 +5974,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B214" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C214" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D214" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="12"/>
@@ -5995,16 +5992,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B215" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C215" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D215" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="12"/>
@@ -6013,16 +6010,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B216" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D216" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="12"/>
@@ -6031,16 +6028,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B217" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C217" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D217" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="12"/>
@@ -6049,16 +6046,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B218" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C218" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D218" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="12"/>
@@ -6067,16 +6064,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B219" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C219" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D219" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="12"/>
@@ -6085,16 +6082,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B220" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C220" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D220" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="12"/>
@@ -6103,26 +6100,26 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B223" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C223" t="s">
         <v>71</v>
       </c>
       <c r="D223" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" ref="F223:F232" si="13">CONCATENATE(A223,B223,A223,", ",A223,C223,A223,", ",A223,D223,A223,",")</f>
@@ -6131,16 +6128,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B224" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C224" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D224" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="13"/>
@@ -6149,16 +6146,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B225" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C225" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D225" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="13"/>
@@ -6167,16 +6164,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B226" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C226" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D226" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="13"/>
@@ -6185,16 +6182,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B227" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C227" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D227" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="13"/>
@@ -6203,16 +6200,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B228" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C228" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D228" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="13"/>
@@ -6221,16 +6218,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B229" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C229" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D229" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="13"/>
@@ -6239,16 +6236,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B230" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C230" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D230" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="13"/>
@@ -6257,16 +6254,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B231" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C231" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D231" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="13"/>
@@ -6275,16 +6272,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B232" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C232" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D232" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="13"/>
@@ -6293,20 +6290,20 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B235" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C235" t="s">
         <v>87</v>
@@ -6321,16 +6318,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B236" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C236" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D236" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="14"/>
@@ -6339,16 +6336,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B237" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C237" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D237" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="14"/>
@@ -6357,16 +6354,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B238" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C238" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D238" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="14"/>
@@ -6375,16 +6372,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B239" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C239" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D239" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="14"/>
@@ -6393,16 +6390,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B240" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C240" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D240" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F240" t="str">
         <f t="shared" si="14"/>
@@ -6411,16 +6408,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B241" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C241" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D241" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F241" t="str">
         <f t="shared" si="14"/>
@@ -6429,16 +6426,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B242" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C242" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D242" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="14"/>
@@ -6447,16 +6444,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B243" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C243" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D243" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="14"/>
@@ -6465,21 +6462,21 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B245" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C245" t="s">
         <v>94</v>
       </c>
       <c r="D245" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" ref="F245:F254" si="15">CONCATENATE(A245,B245,A245,", ",A245,C245,A245,", ",A245,D245,A245,",")</f>
@@ -6488,16 +6485,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B246" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C246" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D246" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="15"/>
@@ -6506,16 +6503,16 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B247" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C247" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D247" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="15"/>
@@ -6524,16 +6521,16 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B248" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C248" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D248" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="15"/>
@@ -6542,16 +6539,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B249" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C249" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D249" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="15"/>
@@ -6560,16 +6557,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B250" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C250" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D250" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="15"/>
@@ -6578,16 +6575,16 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B251" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C251" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D251" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="15"/>
@@ -6596,16 +6593,16 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B252" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C252" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D252" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="15"/>
@@ -6614,16 +6611,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B253" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C253" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D253" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="15"/>
@@ -6632,16 +6629,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B254" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C254" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D254" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="15"/>
@@ -6650,26 +6647,26 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B257" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C257" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D257" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F257" t="str">
         <f t="shared" ref="F257:F260" si="16">CONCATENATE(A257,B257,A257,", ",A257,C257,A257,", ",A257,D257,A257,",")</f>
@@ -6678,16 +6675,16 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B258" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C258" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D258" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F258" t="str">
         <f t="shared" si="16"/>
@@ -6696,16 +6693,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C259" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D259" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F259" t="str">
         <f t="shared" si="16"/>
@@ -6714,16 +6711,16 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B260" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C260" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D260" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F260" t="str">
         <f t="shared" si="16"/>
@@ -6732,26 +6729,26 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B263" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C263" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D263" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F263" t="str">
         <f t="shared" ref="F263:F269" si="17">CONCATENATE(A263,B263,A263,", ",A263,C263,A263,", ",A263,D263,A263,",")</f>
@@ -6760,16 +6757,16 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B264" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C264" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D264" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="17"/>
@@ -6778,16 +6775,16 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B265" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C265" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D265" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F265" t="str">
         <f t="shared" si="17"/>
@@ -6796,16 +6793,16 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B266" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C266" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D266" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F266" t="str">
         <f t="shared" si="17"/>
@@ -6814,16 +6811,16 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B267" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C267" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D267" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F267" t="str">
         <f t="shared" si="17"/>
@@ -6832,16 +6829,16 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C268" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D268" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F268" t="str">
         <f t="shared" si="17"/>
@@ -6850,16 +6847,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C269" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D269" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F269" t="str">
         <f t="shared" si="17"/>
@@ -6868,26 +6865,26 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B272" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C272" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D272" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F272" t="str">
         <f t="shared" ref="F272:F285" si="18">CONCATENATE(A272,B272,A272,", ",A272,C272,A272,", ",A272,D272,A272,",")</f>
@@ -6896,16 +6893,16 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B273" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C273" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D273" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="18"/>
@@ -6914,16 +6911,16 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B274" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C274" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D274" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F274" t="str">
         <f t="shared" si="18"/>
@@ -6932,16 +6929,16 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B275" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C275" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D275" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="18"/>
@@ -6950,16 +6947,16 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B276" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C276" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D276" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F276" t="str">
         <f t="shared" si="18"/>
@@ -6968,16 +6965,16 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B277" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C277" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D277" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F277" t="str">
         <f t="shared" si="18"/>
@@ -6986,16 +6983,16 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B278" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C278" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D278" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F278" t="str">
         <f t="shared" si="18"/>
@@ -7004,16 +7001,16 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B279" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C279" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D279" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F279" t="str">
         <f t="shared" si="18"/>
@@ -7022,16 +7019,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B280" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C280" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F280" t="str">
         <f t="shared" si="18"/>
@@ -7040,16 +7037,16 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B281" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C281" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D281" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F281" t="str">
         <f t="shared" si="18"/>
@@ -7058,16 +7055,16 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B282" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C282" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D282" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F282" t="str">
         <f t="shared" si="18"/>
@@ -7076,16 +7073,16 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B283" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C283" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D283" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="18"/>
@@ -7094,16 +7091,16 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B284" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C284" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D284" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="18"/>
@@ -7112,16 +7109,16 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B285" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C285" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D285" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F285" t="str">
         <f t="shared" si="18"/>
